--- a/SNS tokenomics tool.xlsx
+++ b/SNS tokenomics tool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\v1ctor\projects\neuralarena-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6B9CA2-2DC4-438F-92B3-2C7286C951D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3770CC-0E76-4366-BC59-46DECF2FEDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SNS configuration" sheetId="4" r:id="rId1"/>
@@ -1231,19 +1231,19 @@
                 <c:formatCode>#,##0.0;\(#,##0.0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.6</c:v>
+                  <c:v>4.0265486725663715</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.399999999999999</c:v>
+                  <c:v>30.973451327433629</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1756,13 +1756,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.9237548235310522E-2</c:v>
+                  <c:v>5.213765190462076E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44289392121865939</c:v>
+                  <c:v>0.44418801933749646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2236,6 +2236,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1899-440F-ACC8-8BB1C8FC383C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2369,13 +2374,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.9237548235310522E-2</c:v>
+                  <c:v>5.213765190462076E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4978685305460302</c:v>
+                  <c:v>0.50367432875788276</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44289392121865939</c:v>
+                  <c:v>0.44418801933749646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3563,7 +3568,7 @@
                 <c:formatCode>#,##0;\(#,##0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20000000</c:v>
+                  <c:v>35000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3849,10 +3854,10 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
+                  <c:v>165000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500000</c:v>
+                  <c:v>565000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3954,10 +3959,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.08</c:v>
+                  <c:v>7.5428571428571428E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.25828571428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6077,7 +6082,7 @@
   </sheetPr>
   <dimension ref="A1:F1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -6572,14 +6577,14 @@
         <v>108</v>
       </c>
       <c r="C27" s="71">
-        <v>20000000</v>
+        <v>35000000</v>
       </c>
       <c r="D27" s="66" t="s">
         <v>61</v>
       </c>
       <c r="E27" s="67">
         <f t="shared" ref="E27:E32" si="3">C27*10^8</f>
-        <v>2000000000000000</v>
+        <v>3500000000000000</v>
       </c>
       <c r="F27" s="66" t="s">
         <v>90</v>
@@ -6593,14 +6598,14 @@
         <v>110</v>
       </c>
       <c r="C28" s="71">
-        <v>20000000</v>
+        <v>35000000</v>
       </c>
       <c r="D28" s="66" t="s">
         <v>61</v>
       </c>
       <c r="E28" s="67">
         <f t="shared" si="3"/>
-        <v>2000000000000000</v>
+        <v>3500000000000000</v>
       </c>
       <c r="F28" s="66" t="s">
         <v>90</v>
@@ -6614,14 +6619,14 @@
         <v>112</v>
       </c>
       <c r="C29" s="72">
-        <v>17000000</v>
+        <v>30000000</v>
       </c>
       <c r="D29" s="73" t="s">
         <v>61</v>
       </c>
       <c r="E29" s="74">
         <f t="shared" si="3"/>
-        <v>1700000000000000</v>
+        <v>3000000000000000</v>
       </c>
       <c r="F29" s="73" t="s">
         <v>90</v>
@@ -6677,14 +6682,14 @@
         <v>118</v>
       </c>
       <c r="C32" s="71">
-        <v>63000000</v>
+        <v>35000000</v>
       </c>
       <c r="D32" s="66" t="s">
         <v>61</v>
       </c>
       <c r="E32" s="67">
         <f t="shared" si="3"/>
-        <v>6300000000000000</v>
+        <v>3500000000000000</v>
       </c>
       <c r="F32" s="66" t="s">
         <v>90</v>
@@ -9762,8 +9767,8 @@
   </sheetPr>
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9853,7 +9858,7 @@
       </c>
       <c r="B7" s="13">
         <f>'SNS configuration'!C25*1/'Token price range'!C6 / 10^6</f>
-        <v>2.6</v>
+        <v>4.0265486725663715</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -9873,7 +9878,7 @@
       </c>
       <c r="B8" s="14">
         <f>'SNS configuration'!C28/10^6</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -9893,7 +9898,7 @@
       </c>
       <c r="B9" s="13">
         <f>B8-B7</f>
-        <v>17.399999999999999</v>
+        <v>30.973451327433629</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -9980,7 +9985,7 @@
       </c>
       <c r="B12" s="18">
         <f>B7</f>
-        <v>2.6</v>
+        <v>4.0265486725663715</v>
       </c>
       <c r="C12" s="19">
         <f>'SNS configuration'!B38</f>
@@ -9988,7 +9993,7 @@
       </c>
       <c r="D12" s="20">
         <f t="shared" ref="D12:D19" si="0">B12*C12</f>
-        <v>2.2285714285714286</v>
+        <v>3.4513274336283182</v>
       </c>
       <c r="E12" s="21">
         <f>'SNS configuration'!C38</f>
@@ -10003,11 +10008,11 @@
       </c>
       <c r="H12" s="20">
         <f t="shared" ref="H12:H14" si="2">D12*F12*G12</f>
-        <v>2.2773214285714287</v>
+        <v>3.5268252212389379</v>
       </c>
       <c r="I12" s="22">
         <f t="shared" ref="I12:I19" si="3">H12/$H$20</f>
-        <v>5.9237548235310522E-2</v>
+        <v>5.213765190462076E-2</v>
       </c>
       <c r="J12" s="19">
         <f>IF( 'SNS configuration'!$B$45, 'SNS configuration'!B50, 100%)</f>
@@ -10015,11 +10020,11 @@
       </c>
       <c r="K12" s="20">
         <f t="shared" ref="K12:K14" si="4">H12*J12</f>
-        <v>2.2773214285714287</v>
+        <v>3.5268252212389379</v>
       </c>
       <c r="L12" s="23">
         <f t="shared" ref="L12:L19" si="5">K12/$K$20</f>
-        <v>5.9237548235310522E-2</v>
+        <v>5.213765190462076E-2</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
@@ -10076,7 +10081,7 @@
       </c>
       <c r="B14" s="18">
         <f>IF('SNS configuration'!B45, 'SNS configuration'!B46*B9, 0)</f>
-        <v>17.399999999999999</v>
+        <v>30.973451327433629</v>
       </c>
       <c r="C14" s="19">
         <f>'SNS configuration'!B47</f>
@@ -10084,7 +10089,7 @@
       </c>
       <c r="D14" s="20">
         <f t="shared" si="0"/>
-        <v>17.399999999999999</v>
+        <v>30.973451327433629</v>
       </c>
       <c r="E14" s="7">
         <f>'SNS configuration'!B48</f>
@@ -10099,11 +10104,11 @@
       </c>
       <c r="H14" s="20">
         <f t="shared" si="2"/>
-        <v>19.14</v>
+        <v>34.070796460176993</v>
       </c>
       <c r="I14" s="22">
         <f t="shared" si="3"/>
-        <v>0.4978685305460302</v>
+        <v>0.50367432875788276</v>
       </c>
       <c r="J14" s="19">
         <f>IF( 'SNS configuration'!$B$45, 'SNS configuration'!B52, 100%)</f>
@@ -10111,11 +10116,11 @@
       </c>
       <c r="K14" s="20">
         <f t="shared" si="4"/>
-        <v>19.14</v>
+        <v>34.070796460176993</v>
       </c>
       <c r="L14" s="23">
         <f t="shared" si="5"/>
-        <v>0.4978685305460302</v>
+        <v>0.50367432875788276</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
@@ -10154,7 +10159,7 @@
       </c>
       <c r="B16" s="18">
         <f>'SNS configuration'!C29/10^6</f>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C16" s="19">
         <f>'SNS configuration'!B40</f>
@@ -10162,7 +10167,7 @@
       </c>
       <c r="D16" s="20">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E16" s="21">
         <f>'SNS configuration'!C40</f>
@@ -10178,11 +10183,11 @@
       </c>
       <c r="H16" s="20">
         <f t="shared" ref="H16:H18" si="7">D16*F16*G16</f>
-        <v>17.026562499999997</v>
+        <v>30.046874999999996</v>
       </c>
       <c r="I16" s="22">
         <f t="shared" si="3"/>
-        <v>0.44289392121865939</v>
+        <v>0.44418801933749646</v>
       </c>
       <c r="J16" s="19">
         <f>IF( 'SNS configuration'!$B$45, 'SNS configuration'!B52, 100%)</f>
@@ -10190,11 +10195,11 @@
       </c>
       <c r="K16" s="20">
         <f t="shared" ref="K16:K18" si="8">H16*J16</f>
-        <v>17.026562499999997</v>
+        <v>30.046874999999996</v>
       </c>
       <c r="L16" s="23">
         <f t="shared" si="5"/>
-        <v>0.44289392121865939</v>
+        <v>0.44418801933749646</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -10300,7 +10305,7 @@
       </c>
       <c r="B19" s="18">
         <f>'SNS configuration'!C32/10^6</f>
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C19" s="19">
         <v>0</v>
@@ -10335,14 +10340,14 @@
       <c r="C20" s="7"/>
       <c r="D20" s="20">
         <f>SUM(D12:D19)</f>
-        <v>36.628571428571426</v>
+        <v>64.424778761061944</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="20">
         <f>SUM(H12:H19)</f>
-        <v>38.443883928571424</v>
+        <v>67.64449668141593</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7">
@@ -10351,7 +10356,7 @@
       </c>
       <c r="K20" s="20">
         <f>SUM(K12:K19)</f>
-        <v>38.443883928571424</v>
+        <v>67.64449668141593</v>
       </c>
       <c r="L20" s="24"/>
     </row>
@@ -10817,8 +10822,8 @@
   </sheetPr>
   <dimension ref="A2:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10853,16 +10858,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <f>'SNS configuration'!C18</f>
-        <v>100000</v>
+        <f>'SNS configuration'!C18+'SNS configuration'!C25</f>
+        <v>165000</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:C6" si="0">B5/$B$7</f>
-        <v>5.0000000000000001E-3</v>
+        <v>4.7142857142857143E-3</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" si="1">C5*$B$2</f>
-        <v>0.08</v>
+        <v>7.5428571428571428E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -10870,16 +10875,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <f>'SNS configuration'!C19</f>
-        <v>500000</v>
+        <f>'SNS configuration'!C19+'SNS configuration'!C25</f>
+        <v>565000</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
+        <v>1.6142857142857143E-2</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.25828571428571429</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -10888,7 +10893,7 @@
       </c>
       <c r="B7" s="5">
         <f>'SNS configuration'!C28</f>
-        <v>20000000</v>
+        <v>35000000</v>
       </c>
       <c r="D7" s="6">
         <f>D11</f>
@@ -10920,7 +10925,7 @@
       </c>
       <c r="B32" s="7">
         <f>B31/'Token price range'!C6</f>
-        <v>40</v>
+        <v>61.946902654867259</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -10947,7 +10952,7 @@
       </c>
       <c r="B35" s="7">
         <f>B32/B33-B34</f>
-        <v>5.6142857142857148</v>
+        <v>8.7495575221238937</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -10970,6 +10975,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SNS tokenomics tool.xlsx
+++ b/SNS tokenomics tool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\v1ctor\projects\neuralarena-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3770CC-0E76-4366-BC59-46DECF2FEDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C677F39-C28E-42E1-A320-0185C326F561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SNS configuration" sheetId="4" r:id="rId1"/>
@@ -705,7 +705,6 @@
     <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -831,6 +830,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1231,13 +1231,13 @@
                 <c:formatCode>#,##0.0;\(#,##0.0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.0265486725663715</c:v>
+                  <c:v>6.2328767123287667</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>28.767123287671232</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.973451327433629</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>30</c:v>
@@ -1486,7 +1486,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Voting power at TGE</a:t>
+              <a:t>Voting power at genesis</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1753,16 +1753,16 @@
               </c:extLst>
               <c:f>('Voting power assessment'!$L$12:$L$13,'Voting power assessment'!$L$16)</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.213765190462076E-2</c:v>
+                  <c:v>9.0808323747777878E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.41911534037435944</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44418801933749646</c:v>
+                  <c:v>0.49007633587786259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2371,16 +2371,16 @@
               </c:extLst>
               <c:f>('Voting power assessment'!$L$12,'Voting power assessment'!$L$14,'Voting power assessment'!$L$16)</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.213765190462076E-2</c:v>
+                  <c:v>9.0808323747777878E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50367432875788276</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44418801933749646</c:v>
+                  <c:v>0.49007633587786259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2962,34 +2962,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7434917749851757E-3</c:v>
+                  <c:v>1.3492828476735633E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5975395538644729E-3</c:v>
+                  <c:v>1.8205642030260801E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.578582832551993E-3</c:v>
+                  <c:v>2.4564560522315803E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.7055056329612447E-3</c:v>
+                  <c:v>3.3144540173399859E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0000000000000005E-2</c:v>
+                  <c:v>4.472135954999578E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1486983549970357E-2</c:v>
+                  <c:v>6.0341763365451611E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3195079107728951E-2</c:v>
+                  <c:v>8.1418106307380844E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5157165665103991E-2</c:v>
+                  <c:v>1.0985605433061173E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7411011265922496E-2</c:v>
+                  <c:v>1.4822688982138947E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.02</c:v>
@@ -3156,40 +3156,40 @@
                   <c:v>100000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>103500000</c:v>
+                  <c:v>103900000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>106560392.35128903</c:v>
+                  <c:v>107428778.26212671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109187368.20885386</c:v>
+                  <c:v>110590346.59473933</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111396656.37292345</c:v>
+                  <c:v>113394480.28319448</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113211808.56269899</c:v>
+                  <c:v>115853501.49955554</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>114662334.85990857</c:v>
+                  <c:v>117978296.89294539</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>115781785.12134466</c:v>
+                  <c:v>119773433.85458317</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>116605852.81771176</c:v>
+                  <c:v>121231159.11271714</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>117170555.6453872</c:v>
+                  <c:v>122323984.61476651</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>117473908.89391871</c:v>
+                  <c:v>122957293.9280612</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>117473908.89391871</c:v>
+                  <c:v>122957293.9280612</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>117473908.89391871</c:v>
+                  <c:v>122957293.9280612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3854,10 +3854,10 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>165000</c:v>
+                  <c:v>215000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>565000</c:v>
+                  <c:v>365000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3959,10 +3959,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7.5428571428571428E-2</c:v>
+                  <c:v>7.3714285714285704E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25828571428571429</c:v>
+                  <c:v>0.12514285714285717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6082,621 +6082,621 @@
   </sheetPr>
   <dimension ref="A1:F1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" style="50" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="42" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="41" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="59" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
     </row>
     <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="64">
         <v>0.1</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="66">
         <f t="shared" ref="E6:E8" si="0">C6*10^8</f>
         <v>10000000</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="65" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="64">
+        <v>100</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="66">
+        <f t="shared" si="0"/>
+        <v>10000000000</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="64">
         <v>10</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D8" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E8" s="66">
         <f t="shared" si="0"/>
         <v>1000000000</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F8" s="65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="65">
-        <v>100</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="67">
-        <f t="shared" si="0"/>
-        <v>10000000000</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>62</v>
-      </c>
-    </row>
     <row r="9" spans="1:6" ht="112.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="64">
         <v>4</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="67">
         <f t="shared" ref="E9:E10" si="1">C9</f>
         <v>4</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="65" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="64">
         <v>2</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="67">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="65" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="64">
         <v>8</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="67">
         <f>C11*$B$58</f>
         <v>252460800</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="65" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="68">
         <f>6/12</f>
         <v>0.5</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="67">
         <f>C12*$B$58</f>
         <v>15778800</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="65" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="65">
+      <c r="C13" s="64">
         <v>4</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="67">
         <f>C13*$B$58</f>
         <v>126230400</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="65" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="65">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D14" s="66" t="s">
+      <c r="C14" s="64">
+        <v>1.2</v>
+      </c>
+      <c r="D14" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="67">
         <f>C14</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F14" s="66" t="s">
+        <v>1.2</v>
+      </c>
+      <c r="F14" s="65" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="64">
         <v>8</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="67">
         <f>C15*$B$58</f>
         <v>252460800</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="65" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="64">
         <v>2</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="67">
         <f>C16</f>
         <v>2</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="65" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
     </row>
     <row r="18" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="70">
-        <v>100000</v>
-      </c>
-      <c r="D18" s="66" t="s">
+      <c r="C18" s="69">
+        <v>150000</v>
+      </c>
+      <c r="D18" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="66">
         <f t="shared" ref="E18:E22" si="2">C18*10^8</f>
-        <v>10000000000000</v>
-      </c>
-      <c r="F18" s="66" t="s">
+        <v>15000000000000</v>
+      </c>
+      <c r="F18" s="65" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="70">
-        <v>500000</v>
-      </c>
-      <c r="D19" s="66" t="s">
+      <c r="C19" s="69">
+        <v>300000</v>
+      </c>
+      <c r="D19" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="66">
         <f t="shared" si="2"/>
-        <v>50000000000000</v>
-      </c>
-      <c r="F19" s="66" t="s">
+        <v>30000000000000</v>
+      </c>
+      <c r="F19" s="65" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="65">
+      <c r="C20" s="64">
         <v>100</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="66">
         <f t="shared" si="2"/>
         <v>10000000000</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="65" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="65">
+      <c r="C21" s="64">
         <v>1</v>
       </c>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="66">
         <f t="shared" si="2"/>
         <v>100000000</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="65" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="70">
+      <c r="C22" s="69">
         <v>100000</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="66">
         <f t="shared" si="2"/>
         <v>10000000000000</v>
       </c>
-      <c r="F22" s="66" t="s">
+      <c r="F22" s="65" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="65">
+      <c r="C23" s="64">
         <v>7</v>
       </c>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="68">
+      <c r="E23" s="67">
         <f>C23</f>
         <v>7</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="65" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="65">
+      <c r="C24" s="64">
         <f>1/4</f>
         <v>0.25</v>
       </c>
-      <c r="D24" s="66" t="s">
+      <c r="D24" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="68">
+      <c r="E24" s="67">
         <f>C24*$B$58</f>
         <v>7889400</v>
       </c>
-      <c r="F24" s="66" t="s">
+      <c r="F24" s="65" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="70">
+      <c r="C25" s="69">
         <v>65000</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="67">
+      <c r="E25" s="66">
         <f>C25*10^8</f>
         <v>6500000000000</v>
       </c>
-      <c r="F25" s="66" t="s">
+      <c r="F25" s="65" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
     </row>
     <row r="27" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="71">
+      <c r="C27" s="70">
         <v>35000000</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="67">
+      <c r="E27" s="66">
         <f t="shared" ref="E27:E32" si="3">C27*10^8</f>
         <v>3500000000000000</v>
       </c>
-      <c r="F27" s="66" t="s">
+      <c r="F27" s="65" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="71">
+      <c r="C28" s="70">
         <v>35000000</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="67">
+      <c r="E28" s="66">
         <f t="shared" si="3"/>
         <v>3500000000000000</v>
       </c>
-      <c r="F28" s="66" t="s">
+      <c r="F28" s="65" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="72">
+      <c r="C29" s="71">
         <v>30000000</v>
       </c>
-      <c r="D29" s="73" t="s">
+      <c r="D29" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="74">
+      <c r="E29" s="73">
         <f t="shared" si="3"/>
         <v>3000000000000000</v>
       </c>
-      <c r="F29" s="73" t="s">
+      <c r="F29" s="72" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="71">
+      <c r="C30" s="70">
         <v>0</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="67">
+      <c r="E30" s="66">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F30" s="66" t="s">
+      <c r="F30" s="65" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="71">
+      <c r="C31" s="70">
         <v>0</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="67">
+      <c r="E31" s="66">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F31" s="66" t="s">
+      <c r="F31" s="65" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="71">
+      <c r="C32" s="70">
         <v>35000000</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="67">
+      <c r="E32" s="66">
         <f t="shared" si="3"/>
         <v>3500000000000000</v>
       </c>
-      <c r="F32" s="66" t="s">
+      <c r="F32" s="65" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="53"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="17"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -6704,7 +6704,7 @@
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="17"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -6712,7 +6712,7 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="53"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="17"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -6720,16 +6720,16 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="39"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="38"/>
     </row>
     <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="52"/>
-      <c r="B37" s="43" t="s">
+      <c r="A37" s="51"/>
+      <c r="B37" s="42" t="s">
         <v>120</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -6737,10 +6737,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="44">
+      <c r="B38" s="43">
         <f>(C23-1)/C23</f>
         <v>0.8571428571428571</v>
       </c>
@@ -6750,10 +6750,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="44">
+      <c r="B39" s="43">
         <f>(C23-1)/C23</f>
         <v>0.8571428571428571</v>
       </c>
@@ -6763,123 +6763,123 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="45">
+      <c r="B40" s="44">
         <v>1</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="36">
         <f>1/16</f>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="B41" s="45">
+      <c r="B41" s="44">
         <v>1</v>
       </c>
-      <c r="C41" s="37">
+      <c r="C41" s="36">
         <f>1/16</f>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="45">
+      <c r="B42" s="44">
         <v>1</v>
       </c>
-      <c r="C42" s="37">
+      <c r="C42" s="36">
         <f>1/16</f>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="35"/>
+      <c r="B44" s="34"/>
     </row>
     <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="46" t="b">
+      <c r="B45" s="45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" s="47">
+    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" s="47">
-        <v>1</v>
-      </c>
-    </row>
     <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="B48" s="48">
+      <c r="B48" s="47">
         <f>'SNS configuration'!C13</f>
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="53"/>
-      <c r="B49" s="38" t="s">
+      <c r="A49" s="52"/>
+      <c r="B49" s="37" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="47">
+      <c r="B50" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="47">
+      <c r="B51" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="47">
+      <c r="B52" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="53" t="s">
+      <c r="A53" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="47">
+      <c r="B53" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="53" t="s">
+      <c r="A54" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="47">
+      <c r="B54" s="46">
         <v>0.5</v>
       </c>
     </row>
@@ -6887,16 +6887,16 @@
       <c r="B56" s="17"/>
     </row>
     <row r="57" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="B57" s="35"/>
+      <c r="B57" s="34"/>
     </row>
     <row r="58" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="54" t="s">
+      <c r="A58" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="40">
+      <c r="B58" s="39">
         <f>365.25*24*60*60</f>
         <v>31557600</v>
       </c>
@@ -9767,8 +9767,8 @@
   </sheetPr>
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9799,7 +9799,7 @@
       </c>
       <c r="B2" s="7">
         <f>'SNS configuration'!C14</f>
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
@@ -9858,7 +9858,7 @@
       </c>
       <c r="B7" s="13">
         <f>'SNS configuration'!C25*1/'Token price range'!C6 / 10^6</f>
-        <v>4.0265486725663715</v>
+        <v>6.2328767123287667</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -9893,12 +9893,12 @@
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="77" t="s">
         <v>138</v>
       </c>
       <c r="B9" s="13">
         <f>B8-B7</f>
-        <v>30.973451327433629</v>
+        <v>28.767123287671232</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -9980,12 +9980,12 @@
       <c r="AB11" s="17"/>
     </row>
     <row r="12" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="77" t="s">
         <v>136</v>
       </c>
       <c r="B12" s="18">
         <f>B7</f>
-        <v>4.0265486725663715</v>
+        <v>6.2328767123287667</v>
       </c>
       <c r="C12" s="19">
         <f>'SNS configuration'!B38</f>
@@ -9993,7 +9993,7 @@
       </c>
       <c r="D12" s="20">
         <f t="shared" ref="D12:D19" si="0">B12*C12</f>
-        <v>3.4513274336283182</v>
+        <v>5.3424657534246567</v>
       </c>
       <c r="E12" s="21">
         <f>'SNS configuration'!C38</f>
@@ -10001,18 +10001,18 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" ref="F12:F14" si="1">1 + E12/$B$4 * ($B$2-1)</f>
-        <v>1.0218750000000001</v>
+        <v>1.04375</v>
       </c>
       <c r="G12" s="20">
         <v>1</v>
       </c>
       <c r="H12" s="20">
         <f t="shared" ref="H12:H14" si="2">D12*F12*G12</f>
-        <v>3.5268252212389379</v>
+        <v>5.576198630136985</v>
       </c>
       <c r="I12" s="22">
         <f t="shared" ref="I12:I19" si="3">H12/$H$20</f>
-        <v>5.213765190462076E-2</v>
+        <v>9.0808323747777878E-2</v>
       </c>
       <c r="J12" s="19">
         <f>IF( 'SNS configuration'!$B$45, 'SNS configuration'!B50, 100%)</f>
@@ -10020,20 +10020,20 @@
       </c>
       <c r="K12" s="20">
         <f t="shared" ref="K12:K14" si="4">H12*J12</f>
-        <v>3.5268252212389379</v>
-      </c>
-      <c r="L12" s="23">
+        <v>5.576198630136985</v>
+      </c>
+      <c r="L12" s="78">
         <f t="shared" ref="L12:L19" si="5">K12/$K$20</f>
-        <v>5.213765190462076E-2</v>
+        <v>9.0808323747777878E-2</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="77" t="s">
         <v>137</v>
       </c>
       <c r="B13" s="18">
         <f>IF('SNS configuration'!B45, (1-'SNS configuration'!B46)*B9, B9)</f>
-        <v>0</v>
+        <v>28.767123287671232</v>
       </c>
       <c r="C13" s="19">
         <f>'SNS configuration'!B39</f>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D13" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24.657534246575342</v>
       </c>
       <c r="E13" s="21">
         <f>'SNS configuration'!C39</f>
@@ -10049,18 +10049,18 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="1"/>
-        <v>1.0218750000000001</v>
+        <v>1.04375</v>
       </c>
       <c r="G13" s="20">
         <v>1</v>
       </c>
       <c r="H13" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>25.736301369863011</v>
       </c>
       <c r="I13" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.41911534037435944</v>
       </c>
       <c r="J13" s="19">
         <f>IF( 'SNS configuration'!$B$45, 'SNS configuration'!B51, 100%)</f>
@@ -10068,11 +10068,11 @@
       </c>
       <c r="K13" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="23">
+        <v>25.736301369863011</v>
+      </c>
+      <c r="L13" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.41911534037435944</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="B14" s="18">
         <f>IF('SNS configuration'!B45, 'SNS configuration'!B46*B9, 0)</f>
-        <v>30.973451327433629</v>
+        <v>0</v>
       </c>
       <c r="C14" s="19">
         <f>'SNS configuration'!B47</f>
@@ -10089,7 +10089,7 @@
       </c>
       <c r="D14" s="20">
         <f t="shared" si="0"/>
-        <v>30.973451327433629</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7">
         <f>'SNS configuration'!B48</f>
@@ -10097,18 +10097,18 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="G14" s="20">
         <v>1</v>
       </c>
       <c r="H14" s="20">
         <f t="shared" si="2"/>
-        <v>34.070796460176993</v>
+        <v>0</v>
       </c>
       <c r="I14" s="22">
         <f t="shared" si="3"/>
-        <v>0.50367432875788276</v>
+        <v>0</v>
       </c>
       <c r="J14" s="19">
         <f>IF( 'SNS configuration'!$B$45, 'SNS configuration'!B52, 100%)</f>
@@ -10116,11 +10116,11 @@
       </c>
       <c r="K14" s="20">
         <f t="shared" si="4"/>
-        <v>34.070796460176993</v>
-      </c>
-      <c r="L14" s="23">
+        <v>0</v>
+      </c>
+      <c r="L14" s="78">
         <f t="shared" si="5"/>
-        <v>0.50367432875788276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
@@ -10148,7 +10148,7 @@
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="20"/>
-      <c r="L15" s="23">
+      <c r="L15" s="78">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -10175,7 +10175,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" ref="F16:F18" si="6">1 + E16/$B$4 * ($B$2-1)</f>
-        <v>1.0015624999999999</v>
+        <v>1.003125</v>
       </c>
       <c r="G16" s="20">
         <f>(B12+B13)/(B12+B13+B15)</f>
@@ -10183,11 +10183,11 @@
       </c>
       <c r="H16" s="20">
         <f t="shared" ref="H16:H18" si="7">D16*F16*G16</f>
-        <v>30.046874999999996</v>
+        <v>30.09375</v>
       </c>
       <c r="I16" s="22">
         <f t="shared" si="3"/>
-        <v>0.44418801933749646</v>
+        <v>0.49007633587786259</v>
       </c>
       <c r="J16" s="19">
         <f>IF( 'SNS configuration'!$B$45, 'SNS configuration'!B52, 100%)</f>
@@ -10195,11 +10195,11 @@
       </c>
       <c r="K16" s="20">
         <f t="shared" ref="K16:K18" si="8">H16*J16</f>
-        <v>30.046874999999996</v>
-      </c>
-      <c r="L16" s="23">
+        <v>30.09375</v>
+      </c>
+      <c r="L16" s="78">
         <f t="shared" si="5"/>
-        <v>0.44418801933749646</v>
+        <v>0.49007633587786259</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -10224,7 +10224,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="6"/>
-        <v>1.0015624999999999</v>
+        <v>1.003125</v>
       </c>
       <c r="G17" s="20">
         <f>(B12+B13)/(B12+B13+B15)</f>
@@ -10246,7 +10246,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="78">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -10273,7 +10273,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="6"/>
-        <v>1.0015624999999999</v>
+        <v>1.003125</v>
       </c>
       <c r="G18" s="20">
         <v>1</v>
@@ -10288,13 +10288,13 @@
       </c>
       <c r="J18" s="19">
         <f>IF( 'SNS configuration'!$B$45, 'SNS configuration'!B54, 100%)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K18" s="20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="78">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -10324,7 +10324,7 @@
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="20"/>
-      <c r="L19" s="23">
+      <c r="L19" s="78">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -10340,14 +10340,14 @@
       <c r="C20" s="7"/>
       <c r="D20" s="20">
         <f>SUM(D12:D19)</f>
-        <v>64.424778761061944</v>
+        <v>60</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="20">
         <f>SUM(H12:H19)</f>
-        <v>67.64449668141593</v>
+        <v>61.40625</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7">
@@ -10356,12 +10356,12 @@
       </c>
       <c r="K20" s="20">
         <f>SUM(K12:K19)</f>
-        <v>67.64449668141593</v>
-      </c>
-      <c r="L20" s="24"/>
+        <v>61.40625</v>
+      </c>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="M21" s="25"/>
+      <c r="M21" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -10376,8 +10376,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10411,10 +10411,10 @@
       <c r="A3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="26">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C3" s="26">
+      <c r="B3" s="25">
+        <v>1E-3</v>
+      </c>
+      <c r="C3" s="25">
         <v>0.02</v>
       </c>
     </row>
@@ -10431,7 +10431,7 @@
       <c r="A5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <v>10</v>
       </c>
     </row>
@@ -10441,372 +10441,372 @@
       </c>
       <c r="B6" s="21">
         <f>(C3/B3)^(1/B5)</f>
-        <v>1.1486983549970351</v>
+        <v>1.3492828476735632</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="A10" s="27"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="A11" s="27"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="40" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="31">
+      <c r="A13" s="30">
         <v>0</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="31">
         <f t="shared" ref="B13:B25" si="0">$C$2 + ($B$2 - $C$2) * MAX($B$4-A13,0)^2/$B$4^2</f>
         <v>0.04</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="32">
         <f t="shared" ref="C13:C25" si="1">F13*B13</f>
         <v>4000000</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="31">
         <f>$B$3</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E13" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="E13" s="32">
         <f>-D13*F13</f>
-        <v>-500000</v>
-      </c>
-      <c r="F13" s="33">
+        <v>-100000</v>
+      </c>
+      <c r="F13" s="32">
         <v>100000000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
+      <c r="A14" s="30">
         <f t="shared" ref="A14:A25" si="2">A13+1</f>
         <v>1</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="31">
         <f t="shared" si="0"/>
         <v>3.5312499999999997E-2</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="32">
         <f t="shared" si="1"/>
-        <v>3654843.7499999995</v>
-      </c>
-      <c r="D14" s="32">
+        <v>3668968.7499999995</v>
+      </c>
+      <c r="D14" s="31">
         <f t="shared" ref="D14:D22" si="3">IF( A14&gt; $B$5, $C$3, D13*$B$6)</f>
-        <v>5.7434917749851757E-3</v>
-      </c>
-      <c r="E14" s="33">
+        <v>1.3492828476735633E-3</v>
+      </c>
+      <c r="E14" s="32">
         <f t="shared" ref="E14:E25" si="4">-D14*F14</f>
-        <v>-594451.39871096564</v>
-      </c>
-      <c r="F14" s="33">
+        <v>-140190.48787328324</v>
+      </c>
+      <c r="F14" s="32">
         <f t="shared" ref="F14:F25" si="5">F13+C13+E13</f>
-        <v>103500000</v>
+        <v>103900000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="31">
+      <c r="A15" s="30">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="31">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="32">
         <f t="shared" si="1"/>
-        <v>3330012.2609777823</v>
-      </c>
-      <c r="D15" s="32">
+        <v>3357149.3206914598</v>
+      </c>
+      <c r="D15" s="31">
         <f t="shared" si="3"/>
-        <v>6.5975395538644729E-3</v>
-      </c>
-      <c r="E15" s="33">
+        <v>1.8205642030260801E-3</v>
+      </c>
+      <c r="E15" s="32">
         <f t="shared" si="4"/>
-        <v>-703036.40341294662</v>
-      </c>
-      <c r="F15" s="33">
+        <v>-195580.98807885419</v>
+      </c>
+      <c r="F15" s="32">
         <f t="shared" si="5"/>
-        <v>106560392.35128903</v>
+        <v>107428778.26212671</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="31">
+      <c r="A16" s="30">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="31">
         <f t="shared" si="0"/>
         <v>2.78125E-2</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="32">
         <f t="shared" si="1"/>
-        <v>3036773.6783087477</v>
-      </c>
-      <c r="D16" s="32">
+        <v>3075794.0146661876</v>
+      </c>
+      <c r="D16" s="31">
         <f t="shared" si="3"/>
-        <v>7.578582832551993E-3</v>
-      </c>
-      <c r="E16" s="33">
+        <v>2.4564560522315803E-3</v>
+      </c>
+      <c r="E16" s="32">
         <f t="shared" si="4"/>
-        <v>-827485.51423915313</v>
-      </c>
-      <c r="F16" s="33">
+        <v>-271660.32621103554</v>
+      </c>
+      <c r="F16" s="32">
         <f t="shared" si="5"/>
-        <v>109187368.20885386</v>
+        <v>110590346.59473933</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="31">
+      <c r="A17" s="30">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="31">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="32">
         <f t="shared" si="1"/>
-        <v>2784916.4093230865</v>
-      </c>
-      <c r="D17" s="32">
+        <v>2834862.0070798621</v>
+      </c>
+      <c r="D17" s="31">
         <f t="shared" si="3"/>
-        <v>8.7055056329612447E-3</v>
-      </c>
-      <c r="E17" s="33">
+        <v>3.3144540173399859E-3</v>
+      </c>
+      <c r="E17" s="32">
         <f t="shared" si="4"/>
-        <v>-969764.2195475332</v>
-      </c>
-      <c r="F17" s="33">
+        <v>-375840.79071881378</v>
+      </c>
+      <c r="F17" s="32">
         <f t="shared" si="5"/>
-        <v>111396656.37292345</v>
+        <v>113394480.28319448</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="31">
+      <c r="A18" s="30">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="31">
         <f t="shared" si="0"/>
         <v>2.2812499999999999E-2</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="32">
         <f t="shared" si="1"/>
-        <v>2582644.3828365705</v>
-      </c>
-      <c r="D18" s="32">
+        <v>2642908.0029586107</v>
+      </c>
+      <c r="D18" s="31">
         <f t="shared" si="3"/>
-        <v>1.0000000000000005E-2</v>
-      </c>
-      <c r="E18" s="33">
+        <v>4.472135954999578E-3</v>
+      </c>
+      <c r="E18" s="32">
         <f t="shared" si="4"/>
-        <v>-1132118.0856269905</v>
-      </c>
-      <c r="F18" s="33">
+        <v>-518112.60956875986</v>
+      </c>
+      <c r="F18" s="32">
         <f t="shared" si="5"/>
-        <v>113211808.56269899</v>
+        <v>115853501.49955554</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="31">
+      <c r="A19" s="30">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="31">
         <f t="shared" si="0"/>
         <v>2.1250000000000002E-2</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="32">
         <f t="shared" si="1"/>
-        <v>2436574.6157730571</v>
-      </c>
-      <c r="D19" s="32">
+        <v>2507038.8089750898</v>
+      </c>
+      <c r="D19" s="31">
         <f t="shared" si="3"/>
-        <v>1.1486983549970357E-2</v>
-      </c>
-      <c r="E19" s="33">
+        <v>6.0341763365451611E-3</v>
+      </c>
+      <c r="E19" s="32">
         <f t="shared" si="4"/>
-        <v>-1317124.3543369623</v>
-      </c>
-      <c r="F19" s="33">
+        <v>-711901.84733731055</v>
+      </c>
+      <c r="F19" s="32">
         <f t="shared" si="5"/>
-        <v>114662334.85990857</v>
+        <v>117978296.89294539</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="31">
+      <c r="A20" s="30">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="31">
         <f t="shared" si="0"/>
         <v>2.0312500000000001E-2</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="32">
         <f t="shared" si="1"/>
-        <v>2351817.5102773132</v>
-      </c>
-      <c r="D20" s="32">
+        <v>2432897.8751712209</v>
+      </c>
+      <c r="D20" s="31">
         <f t="shared" si="3"/>
-        <v>1.3195079107728951E-2</v>
-      </c>
-      <c r="E20" s="33">
+        <v>8.1418106307380844E-3</v>
+      </c>
+      <c r="E20" s="32">
         <f t="shared" si="4"/>
-        <v>-1527749.8139102175</v>
-      </c>
-      <c r="F20" s="33">
+        <v>-975172.61703725008</v>
+      </c>
+      <c r="F20" s="32">
         <f t="shared" si="5"/>
-        <v>115781785.12134466</v>
+        <v>119773433.85458317</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="31">
+      <c r="A21" s="30">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="31">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="32">
         <f t="shared" si="1"/>
-        <v>2332117.0563542354</v>
-      </c>
-      <c r="D21" s="32">
+        <v>2424623.1822543428</v>
+      </c>
+      <c r="D21" s="31">
         <f t="shared" si="3"/>
-        <v>1.5157165665103991E-2</v>
-      </c>
-      <c r="E21" s="33">
+        <v>1.0985605433061173E-2</v>
+      </c>
+      <c r="E21" s="32">
         <f t="shared" si="4"/>
-        <v>-1767414.2286787902</v>
-      </c>
-      <c r="F21" s="33">
+        <v>-1331797.6802049689</v>
+      </c>
+      <c r="F21" s="32">
         <f t="shared" si="5"/>
-        <v>116605852.81771176</v>
+        <v>121231159.11271714</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="31">
+      <c r="A22" s="30">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="31">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="32">
         <f t="shared" si="1"/>
-        <v>2343411.112907744</v>
-      </c>
-      <c r="D22" s="32">
+        <v>2446479.6922953301</v>
+      </c>
+      <c r="D22" s="31">
         <f t="shared" si="3"/>
-        <v>1.7411011265922496E-2</v>
-      </c>
-      <c r="E22" s="33">
+        <v>1.4822688982138947E-2</v>
+      </c>
+      <c r="E22" s="32">
         <f t="shared" si="4"/>
-        <v>-2040057.8643762353</v>
-      </c>
-      <c r="F22" s="33">
+        <v>-1813170.3790006335</v>
+      </c>
+      <c r="F22" s="32">
         <f t="shared" si="5"/>
-        <v>117170555.6453872</v>
+        <v>122323984.61476651</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="31">
+      <c r="A23" s="30">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="31">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="32">
         <f t="shared" si="1"/>
-        <v>2349478.1778783742</v>
-      </c>
-      <c r="D23" s="32">
+        <v>2459145.8785612243</v>
+      </c>
+      <c r="D23" s="31">
         <f t="shared" ref="D23:D25" si="6">IF( A23&gt;= $B$5, $C$3, D22*$B$6)</f>
         <v>0.02</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="32">
         <f t="shared" si="4"/>
-        <v>-2349478.1778783742</v>
-      </c>
-      <c r="F23" s="33">
+        <v>-2459145.8785612243</v>
+      </c>
+      <c r="F23" s="32">
         <f t="shared" si="5"/>
-        <v>117473908.89391871</v>
+        <v>122957293.9280612</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="31">
+      <c r="A24" s="30">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="31">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="32">
         <f t="shared" si="1"/>
-        <v>2349478.1778783742</v>
-      </c>
-      <c r="D24" s="32">
+        <v>2459145.8785612243</v>
+      </c>
+      <c r="D24" s="31">
         <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="32">
         <f t="shared" si="4"/>
-        <v>-2349478.1778783742</v>
-      </c>
-      <c r="F24" s="33">
+        <v>-2459145.8785612243</v>
+      </c>
+      <c r="F24" s="32">
         <f t="shared" si="5"/>
-        <v>117473908.89391871</v>
+        <v>122957293.9280612</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="31">
+      <c r="A25" s="30">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="31">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="32">
         <f t="shared" si="1"/>
-        <v>2349478.1778783742</v>
-      </c>
-      <c r="D25" s="32">
+        <v>2459145.8785612243</v>
+      </c>
+      <c r="D25" s="31">
         <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="32">
         <f t="shared" si="4"/>
-        <v>-2349478.1778783742</v>
-      </c>
-      <c r="F25" s="33">
+        <v>-2459145.8785612243</v>
+      </c>
+      <c r="F25" s="32">
         <f t="shared" si="5"/>
-        <v>117473908.89391871</v>
+        <v>122957293.9280612</v>
       </c>
     </row>
   </sheetData>
@@ -10822,8 +10822,8 @@
   </sheetPr>
   <dimension ref="A2:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -10859,15 +10859,15 @@
       </c>
       <c r="B5" s="3">
         <f>'SNS configuration'!C18+'SNS configuration'!C25</f>
-        <v>165000</v>
+        <v>215000</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:C6" si="0">B5/$B$7</f>
-        <v>4.7142857142857143E-3</v>
+        <v>6.1428571428571426E-3</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" si="1">C5*$B$2</f>
-        <v>7.5428571428571428E-2</v>
+        <v>7.3714285714285704E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -10876,15 +10876,15 @@
       </c>
       <c r="B6" s="3">
         <f>'SNS configuration'!C19+'SNS configuration'!C25</f>
-        <v>565000</v>
+        <v>365000</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="0"/>
-        <v>1.6142857142857143E-2</v>
+        <v>1.0428571428571429E-2</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="1"/>
-        <v>0.25828571428571429</v>
+        <v>0.12514285714285717</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -10925,7 +10925,7 @@
       </c>
       <c r="B32" s="7">
         <f>B31/'Token price range'!C6</f>
-        <v>61.946902654867259</v>
+        <v>95.890410958904098</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -10952,7 +10952,7 @@
       </c>
       <c r="B35" s="7">
         <f>B32/B33-B34</f>
-        <v>8.7495575221238937</v>
+        <v>13.5986301369863</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -10961,7 +10961,7 @@
       </c>
       <c r="B36" s="7">
         <f>'SNS configuration'!C8</f>
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -10970,7 +10970,7 @@
       </c>
       <c r="B37" s="8" t="b">
         <f>B35&gt;=B36</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/SNS tokenomics tool.xlsx
+++ b/SNS tokenomics tool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\v1ctor\projects\neuralarena-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C677F39-C28E-42E1-A320-0185C326F561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1449D2-901F-44E3-9E3F-791922BE49D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SNS configuration" sheetId="4" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="140">
   <si>
     <t>ICP price [ICP/USD]</t>
   </si>
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t xml:space="preserve">Decentralization swap - non NF </t>
+  </si>
+  <si>
+    <t>Founding team</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1212,7 @@
                   <c:v>Decentralization swap - attacker</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Founding developer team</c:v>
+                  <c:v>Founding team</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Treasury</c:v>
@@ -1234,10 +1237,10 @@
                   <c:v>6.2328767123287667</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>28.767123287671232</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>30</c:v>
@@ -1477,7 +1480,10 @@
             <a:pPr>
               <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1493,7 +1499,7 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR" baseline="0"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1512,7 +1518,10 @@
           <a:pPr>
             <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1549,21 +1558,21 @@
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent2">
                       <a:satMod val="103000"/>
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent2">
                       <a:satMod val="110000"/>
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent2">
                       <a:lumMod val="99000"/>
                       <a:satMod val="120000"/>
                       <a:shade val="78000"/>
@@ -1575,7 +1584,13 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1590,21 +1605,21 @@
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent3">
+                    <a:schemeClr val="accent4">
                       <a:satMod val="103000"/>
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
+                    <a:schemeClr val="accent4">
                       <a:satMod val="110000"/>
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
+                    <a:schemeClr val="accent4">
                       <a:lumMod val="99000"/>
                       <a:satMod val="120000"/>
                       <a:shade val="78000"/>
@@ -1616,7 +1631,13 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1631,21 +1652,21 @@
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent5">
+                    <a:schemeClr val="accent6">
                       <a:satMod val="103000"/>
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
+                    <a:schemeClr val="accent6">
                       <a:satMod val="110000"/>
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
+                    <a:schemeClr val="accent6">
                       <a:lumMod val="99000"/>
                       <a:satMod val="120000"/>
                       <a:shade val="78000"/>
@@ -1657,7 +1678,13 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1683,7 +1710,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1693,23 +1723,24 @@
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
-            <c:showCatName val="0"/>
+            <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525">
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                   <a:solidFill>
-                    <a:schemeClr val="tx2">
+                    <a:schemeClr val="tx1">
                       <a:lumMod val="35000"/>
                       <a:lumOff val="65000"/>
                     </a:schemeClr>
                   </a:solidFill>
+                  <a:round/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -1737,7 +1768,7 @@
                   <c:v>Decentralization swap - non NF</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Founding developer team</c:v>
+                  <c:v>Founding team</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1756,13 +1787,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9.0808323747777878E-2</c:v>
+                  <c:v>7.9443783734333528E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41911534037435944</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49007633587786259</c:v>
+                  <c:v>0.42874393925532889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1776,21 +1807,21 @@
                     <a:gradFill rotWithShape="1">
                       <a:gsLst>
                         <a:gs pos="0">
-                          <a:schemeClr val="accent5">
+                          <a:schemeClr val="accent6">
                             <a:satMod val="103000"/>
                             <a:lumMod val="102000"/>
                             <a:tint val="94000"/>
                           </a:schemeClr>
                         </a:gs>
                         <a:gs pos="50000">
-                          <a:schemeClr val="accent5">
+                          <a:schemeClr val="accent6">
                             <a:satMod val="110000"/>
                             <a:lumMod val="100000"/>
                             <a:shade val="100000"/>
                           </a:schemeClr>
                         </a:gs>
                         <a:gs pos="100000">
-                          <a:schemeClr val="accent5">
+                          <a:schemeClr val="accent6">
                             <a:lumMod val="99000"/>
                             <a:satMod val="120000"/>
                             <a:shade val="78000"/>
@@ -1802,7 +1833,13 @@
                     <a:ln>
                       <a:noFill/>
                     </a:ln>
-                    <a:effectLst/>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="63000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
                   </c15:spPr>
                   <c15:bubble3D val="0"/>
                 </c15:categoryFilterException>
@@ -1812,7 +1849,7 @@
                     <a:gradFill rotWithShape="1">
                       <a:gsLst>
                         <a:gs pos="0">
-                          <a:schemeClr val="accent1">
+                          <a:schemeClr val="accent2">
                             <a:lumMod val="60000"/>
                             <a:satMod val="103000"/>
                             <a:lumMod val="102000"/>
@@ -1820,7 +1857,7 @@
                           </a:schemeClr>
                         </a:gs>
                         <a:gs pos="50000">
-                          <a:schemeClr val="accent1">
+                          <a:schemeClr val="accent2">
                             <a:lumMod val="60000"/>
                             <a:satMod val="110000"/>
                             <a:lumMod val="100000"/>
@@ -1828,7 +1865,7 @@
                           </a:schemeClr>
                         </a:gs>
                         <a:gs pos="100000">
-                          <a:schemeClr val="accent1">
+                          <a:schemeClr val="accent2">
                             <a:lumMod val="60000"/>
                             <a:lumMod val="99000"/>
                             <a:satMod val="120000"/>
@@ -1841,7 +1878,13 @@
                     <a:ln>
                       <a:noFill/>
                     </a:ln>
-                    <a:effectLst/>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="63000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
                   </c15:spPr>
                   <c15:bubble3D val="0"/>
                 </c15:categoryFilterException>
@@ -1851,7 +1894,7 @@
                     <a:gradFill rotWithShape="1">
                       <a:gsLst>
                         <a:gs pos="0">
-                          <a:schemeClr val="accent5">
+                          <a:schemeClr val="accent6">
                             <a:lumMod val="60000"/>
                             <a:satMod val="103000"/>
                             <a:lumMod val="102000"/>
@@ -1859,7 +1902,7 @@
                           </a:schemeClr>
                         </a:gs>
                         <a:gs pos="50000">
-                          <a:schemeClr val="accent5">
+                          <a:schemeClr val="accent6">
                             <a:lumMod val="60000"/>
                             <a:satMod val="110000"/>
                             <a:lumMod val="100000"/>
@@ -1867,7 +1910,7 @@
                           </a:schemeClr>
                         </a:gs>
                         <a:gs pos="100000">
-                          <a:schemeClr val="accent5">
+                          <a:schemeClr val="accent6">
                             <a:lumMod val="60000"/>
                             <a:lumMod val="99000"/>
                             <a:satMod val="120000"/>
@@ -1880,7 +1923,13 @@
                     <a:ln>
                       <a:noFill/>
                     </a:ln>
-                    <a:effectLst/>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="63000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
                   </c15:spPr>
                   <c15:bubble3D val="0"/>
                 </c15:categoryFilterException>
@@ -1890,7 +1939,7 @@
                     <a:gradFill rotWithShape="1">
                       <a:gsLst>
                         <a:gs pos="0">
-                          <a:schemeClr val="accent1">
+                          <a:schemeClr val="accent2">
                             <a:lumMod val="80000"/>
                             <a:lumOff val="20000"/>
                             <a:satMod val="103000"/>
@@ -1899,7 +1948,7 @@
                           </a:schemeClr>
                         </a:gs>
                         <a:gs pos="50000">
-                          <a:schemeClr val="accent1">
+                          <a:schemeClr val="accent2">
                             <a:lumMod val="80000"/>
                             <a:lumOff val="20000"/>
                             <a:satMod val="110000"/>
@@ -1908,7 +1957,7 @@
                           </a:schemeClr>
                         </a:gs>
                         <a:gs pos="100000">
-                          <a:schemeClr val="accent1">
+                          <a:schemeClr val="accent2">
                             <a:lumMod val="80000"/>
                             <a:lumOff val="20000"/>
                             <a:lumMod val="99000"/>
@@ -1922,7 +1971,13 @@
                     <a:ln>
                       <a:noFill/>
                     </a:ln>
-                    <a:effectLst/>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="63000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
                   </c15:spPr>
                   <c15:bubble3D val="0"/>
                 </c15:categoryFilterException>
@@ -1932,7 +1987,7 @@
                     <a:gradFill rotWithShape="1">
                       <a:gsLst>
                         <a:gs pos="0">
-                          <a:schemeClr val="accent3">
+                          <a:schemeClr val="accent4">
                             <a:lumMod val="80000"/>
                             <a:lumOff val="20000"/>
                             <a:satMod val="103000"/>
@@ -1941,7 +1996,7 @@
                           </a:schemeClr>
                         </a:gs>
                         <a:gs pos="50000">
-                          <a:schemeClr val="accent3">
+                          <a:schemeClr val="accent4">
                             <a:lumMod val="80000"/>
                             <a:lumOff val="20000"/>
                             <a:satMod val="110000"/>
@@ -1950,7 +2005,7 @@
                           </a:schemeClr>
                         </a:gs>
                         <a:gs pos="100000">
-                          <a:schemeClr val="accent3">
+                          <a:schemeClr val="accent4">
                             <a:lumMod val="80000"/>
                             <a:lumOff val="20000"/>
                             <a:lumMod val="99000"/>
@@ -1964,7 +2019,13 @@
                     <a:ln>
                       <a:noFill/>
                     </a:ln>
-                    <a:effectLst/>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="63000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
                   </c15:spPr>
                   <c15:bubble3D val="0"/>
                 </c15:categoryFilterException>
@@ -2012,7 +2073,10 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2033,7 +2097,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx2">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2083,7 +2147,10 @@
             <a:pPr>
               <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2099,19 +2166,14 @@
             </a:br>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Attacker</a:t>
+              <a:t>Attacker bying 100% of the non-NF tokens</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> bying 100% of the non-NF tokens</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR" baseline="0"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2130,7 +2192,10 @@
           <a:pPr>
             <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2167,21 +2232,21 @@
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent6">
                       <a:satMod val="103000"/>
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent6">
                       <a:satMod val="110000"/>
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent6">
                       <a:lumMod val="99000"/>
                       <a:satMod val="120000"/>
                       <a:shade val="78000"/>
@@ -2193,7 +2258,13 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2203,47 +2274,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1899-440F-ACC8-8BB1C8FC383C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
@@ -2275,7 +2305,60 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1899-440F-ACC8-8BB1C8FC383C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2301,7 +2384,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2311,23 +2397,24 @@
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
-            <c:showCatName val="0"/>
+            <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525">
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                   <a:solidFill>
-                    <a:schemeClr val="tx2">
+                    <a:schemeClr val="tx1">
                       <a:lumMod val="35000"/>
                       <a:lumOff val="65000"/>
                     </a:schemeClr>
                   </a:solidFill>
+                  <a:round/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -2355,7 +2442,7 @@
                   <c:v>Decentralization swap - attacker</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Founding developer team</c:v>
+                  <c:v>Founding team</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2374,13 +2461,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9.0808323747777878E-2</c:v>
+                  <c:v>7.9443783734333528E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.49181227701033758</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49007633587786259</c:v>
+                  <c:v>0.42874393925532889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2394,21 +2481,21 @@
                     <a:gradFill rotWithShape="1">
                       <a:gsLst>
                         <a:gs pos="0">
-                          <a:schemeClr val="accent3">
+                          <a:schemeClr val="accent5">
                             <a:satMod val="103000"/>
                             <a:lumMod val="102000"/>
                             <a:tint val="94000"/>
                           </a:schemeClr>
                         </a:gs>
                         <a:gs pos="50000">
-                          <a:schemeClr val="accent3">
+                          <a:schemeClr val="accent5">
                             <a:satMod val="110000"/>
                             <a:lumMod val="100000"/>
                             <a:shade val="100000"/>
                           </a:schemeClr>
                         </a:gs>
                         <a:gs pos="100000">
-                          <a:schemeClr val="accent3">
+                          <a:schemeClr val="accent5">
                             <a:lumMod val="99000"/>
                             <a:satMod val="120000"/>
                             <a:shade val="78000"/>
@@ -2420,7 +2507,13 @@
                     <a:ln>
                       <a:noFill/>
                     </a:ln>
-                    <a:effectLst/>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="63000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
                   </c15:spPr>
                   <c15:bubble3D val="0"/>
                 </c15:categoryFilterException>
@@ -2430,7 +2523,7 @@
                     <a:gradFill rotWithShape="1">
                       <a:gsLst>
                         <a:gs pos="0">
-                          <a:schemeClr val="accent1">
+                          <a:schemeClr val="accent6">
                             <a:lumMod val="60000"/>
                             <a:satMod val="103000"/>
                             <a:lumMod val="102000"/>
@@ -2438,7 +2531,7 @@
                           </a:schemeClr>
                         </a:gs>
                         <a:gs pos="50000">
-                          <a:schemeClr val="accent1">
+                          <a:schemeClr val="accent6">
                             <a:lumMod val="60000"/>
                             <a:satMod val="110000"/>
                             <a:lumMod val="100000"/>
@@ -2446,7 +2539,7 @@
                           </a:schemeClr>
                         </a:gs>
                         <a:gs pos="100000">
-                          <a:schemeClr val="accent1">
+                          <a:schemeClr val="accent6">
                             <a:lumMod val="60000"/>
                             <a:lumMod val="99000"/>
                             <a:satMod val="120000"/>
@@ -2459,7 +2552,13 @@
                     <a:ln>
                       <a:noFill/>
                     </a:ln>
-                    <a:effectLst/>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="63000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
                   </c15:spPr>
                   <c15:bubble3D val="0"/>
                 </c15:categoryFilterException>
@@ -2469,7 +2568,7 @@
                     <a:gradFill rotWithShape="1">
                       <a:gsLst>
                         <a:gs pos="0">
-                          <a:schemeClr val="accent5">
+                          <a:schemeClr val="accent4">
                             <a:lumMod val="60000"/>
                             <a:satMod val="103000"/>
                             <a:lumMod val="102000"/>
@@ -2477,7 +2576,7 @@
                           </a:schemeClr>
                         </a:gs>
                         <a:gs pos="50000">
-                          <a:schemeClr val="accent5">
+                          <a:schemeClr val="accent4">
                             <a:lumMod val="60000"/>
                             <a:satMod val="110000"/>
                             <a:lumMod val="100000"/>
@@ -2485,7 +2584,7 @@
                           </a:schemeClr>
                         </a:gs>
                         <a:gs pos="100000">
-                          <a:schemeClr val="accent5">
+                          <a:schemeClr val="accent4">
                             <a:lumMod val="60000"/>
                             <a:lumMod val="99000"/>
                             <a:satMod val="120000"/>
@@ -2498,7 +2597,13 @@
                     <a:ln>
                       <a:noFill/>
                     </a:ln>
-                    <a:effectLst/>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="63000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
                   </c15:spPr>
                   <c15:bubble3D val="0"/>
                 </c15:categoryFilterException>
@@ -2508,7 +2613,7 @@
                     <a:gradFill rotWithShape="1">
                       <a:gsLst>
                         <a:gs pos="0">
-                          <a:schemeClr val="accent1">
+                          <a:schemeClr val="accent6">
                             <a:lumMod val="80000"/>
                             <a:lumOff val="20000"/>
                             <a:satMod val="103000"/>
@@ -2517,7 +2622,7 @@
                           </a:schemeClr>
                         </a:gs>
                         <a:gs pos="50000">
-                          <a:schemeClr val="accent1">
+                          <a:schemeClr val="accent6">
                             <a:lumMod val="80000"/>
                             <a:lumOff val="20000"/>
                             <a:satMod val="110000"/>
@@ -2526,7 +2631,7 @@
                           </a:schemeClr>
                         </a:gs>
                         <a:gs pos="100000">
-                          <a:schemeClr val="accent1">
+                          <a:schemeClr val="accent6">
                             <a:lumMod val="80000"/>
                             <a:lumOff val="20000"/>
                             <a:lumMod val="99000"/>
@@ -2540,7 +2645,13 @@
                     <a:ln>
                       <a:noFill/>
                     </a:ln>
-                    <a:effectLst/>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="63000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
                   </c15:spPr>
                   <c15:bubble3D val="0"/>
                 </c15:categoryFilterException>
@@ -2550,7 +2661,7 @@
                     <a:gradFill rotWithShape="1">
                       <a:gsLst>
                         <a:gs pos="0">
-                          <a:schemeClr val="accent3">
+                          <a:schemeClr val="accent5">
                             <a:lumMod val="80000"/>
                             <a:lumOff val="20000"/>
                             <a:satMod val="103000"/>
@@ -2559,7 +2670,7 @@
                           </a:schemeClr>
                         </a:gs>
                         <a:gs pos="50000">
-                          <a:schemeClr val="accent3">
+                          <a:schemeClr val="accent5">
                             <a:lumMod val="80000"/>
                             <a:lumOff val="20000"/>
                             <a:satMod val="110000"/>
@@ -2568,7 +2679,7 @@
                           </a:schemeClr>
                         </a:gs>
                         <a:gs pos="100000">
-                          <a:schemeClr val="accent3">
+                          <a:schemeClr val="accent5">
                             <a:lumMod val="80000"/>
                             <a:lumOff val="20000"/>
                             <a:lumMod val="99000"/>
@@ -2582,7 +2693,13 @@
                     <a:ln>
                       <a:noFill/>
                     </a:ln>
-                    <a:effectLst/>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="63000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
                   </c15:spPr>
                   <c15:bubble3D val="0"/>
                 </c15:categoryFilterException>
@@ -2630,7 +2747,10 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2651,7 +2771,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx2">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -4199,10 +4319,10 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -4236,10 +4356,10 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -4741,27 +4861,33 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="255">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4784,7 +4910,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4799,7 +4925,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -4808,8 +4937,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -4835,9 +4965,9 @@
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -4845,9 +4975,9 @@
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -4855,12 +4985,12 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4869,18 +4999,20 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt2"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -4892,9 +5024,9 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4910,16 +5042,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4953,17 +5090,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4972,13 +5109,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4990,7 +5128,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -4998,12 +5136,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5017,16 +5155,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -5035,17 +5174,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -5054,16 +5193,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5072,7 +5212,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
@@ -5081,7 +5224,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -5089,7 +5232,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -5097,12 +5240,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5117,17 +5263,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -5136,9 +5282,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5147,14 +5296,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5163,7 +5311,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -5172,7 +5323,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5193,7 +5344,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -5202,34 +5356,40 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="255">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5252,7 +5412,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5267,7 +5427,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -5276,8 +5439,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -5303,9 +5467,9 @@
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -5313,9 +5477,9 @@
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -5323,12 +5487,12 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5337,18 +5501,20 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt2"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -5360,9 +5526,9 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5378,16 +5544,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5421,17 +5592,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -5440,13 +5611,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5458,7 +5630,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -5466,12 +5638,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5485,16 +5657,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -5503,17 +5676,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -5522,16 +5695,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5540,7 +5714,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
@@ -5549,7 +5726,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -5557,7 +5734,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -5565,12 +5742,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5585,17 +5765,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -5604,9 +5784,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5615,14 +5798,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5631,7 +5813,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -5640,7 +5825,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5661,7 +5846,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -5670,7 +5858,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -6809,7 +6997,7 @@
         <v>126</v>
       </c>
       <c r="B45" s="45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -9767,8 +9955,8 @@
   </sheetPr>
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10012,7 +10200,7 @@
       </c>
       <c r="I12" s="22">
         <f t="shared" ref="I12:I19" si="3">H12/$H$20</f>
-        <v>9.0808323747777878E-2</v>
+        <v>7.9443783734333528E-2</v>
       </c>
       <c r="J12" s="19">
         <f>IF( 'SNS configuration'!$B$45, 'SNS configuration'!B50, 100%)</f>
@@ -10024,7 +10212,7 @@
       </c>
       <c r="L12" s="78">
         <f t="shared" ref="L12:L19" si="5">K12/$K$20</f>
-        <v>9.0808323747777878E-2</v>
+        <v>7.9443783734333528E-2</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
@@ -10033,7 +10221,7 @@
       </c>
       <c r="B13" s="18">
         <f>IF('SNS configuration'!B45, (1-'SNS configuration'!B46)*B9, B9)</f>
-        <v>28.767123287671232</v>
+        <v>0</v>
       </c>
       <c r="C13" s="19">
         <f>'SNS configuration'!B39</f>
@@ -10041,7 +10229,7 @@
       </c>
       <c r="D13" s="20">
         <f t="shared" si="0"/>
-        <v>24.657534246575342</v>
+        <v>0</v>
       </c>
       <c r="E13" s="21">
         <f>'SNS configuration'!C39</f>
@@ -10056,11 +10244,11 @@
       </c>
       <c r="H13" s="20">
         <f t="shared" si="2"/>
-        <v>25.736301369863011</v>
+        <v>0</v>
       </c>
       <c r="I13" s="22">
         <f t="shared" si="3"/>
-        <v>0.41911534037435944</v>
+        <v>0</v>
       </c>
       <c r="J13" s="19">
         <f>IF( 'SNS configuration'!$B$45, 'SNS configuration'!B51, 100%)</f>
@@ -10068,11 +10256,11 @@
       </c>
       <c r="K13" s="20">
         <f t="shared" si="4"/>
-        <v>25.736301369863011</v>
+        <v>0</v>
       </c>
       <c r="L13" s="78">
         <f t="shared" si="5"/>
-        <v>0.41911534037435944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
@@ -10081,7 +10269,7 @@
       </c>
       <c r="B14" s="18">
         <f>IF('SNS configuration'!B45, 'SNS configuration'!B46*B9, 0)</f>
-        <v>0</v>
+        <v>28.767123287671232</v>
       </c>
       <c r="C14" s="19">
         <f>'SNS configuration'!B47</f>
@@ -10089,7 +10277,7 @@
       </c>
       <c r="D14" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28.767123287671232</v>
       </c>
       <c r="E14" s="7">
         <f>'SNS configuration'!B48</f>
@@ -10104,11 +10292,11 @@
       </c>
       <c r="H14" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>34.520547945205479</v>
       </c>
       <c r="I14" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.49181227701033758</v>
       </c>
       <c r="J14" s="19">
         <f>IF( 'SNS configuration'!$B$45, 'SNS configuration'!B52, 100%)</f>
@@ -10116,11 +10304,11 @@
       </c>
       <c r="K14" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>34.520547945205479</v>
       </c>
       <c r="L14" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.49181227701033758</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
@@ -10155,7 +10343,7 @@
     </row>
     <row r="16" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="B16" s="18">
         <f>'SNS configuration'!C29/10^6</f>
@@ -10187,7 +10375,7 @@
       </c>
       <c r="I16" s="22">
         <f t="shared" si="3"/>
-        <v>0.49007633587786259</v>
+        <v>0.42874393925532889</v>
       </c>
       <c r="J16" s="19">
         <f>IF( 'SNS configuration'!$B$45, 'SNS configuration'!B52, 100%)</f>
@@ -10199,7 +10387,7 @@
       </c>
       <c r="L16" s="78">
         <f t="shared" si="5"/>
-        <v>0.49007633587786259</v>
+        <v>0.42874393925532889</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -10288,7 +10476,7 @@
       </c>
       <c r="J18" s="19">
         <f>IF( 'SNS configuration'!$B$45, 'SNS configuration'!B54, 100%)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K18" s="20">
         <f t="shared" si="8"/>
@@ -10340,14 +10528,14 @@
       <c r="C20" s="7"/>
       <c r="D20" s="20">
         <f>SUM(D12:D19)</f>
-        <v>60</v>
+        <v>64.109589041095887</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="20">
         <f>SUM(H12:H19)</f>
-        <v>61.40625</v>
+        <v>70.190496575342465</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7">
@@ -10356,7 +10544,7 @@
       </c>
       <c r="K20" s="20">
         <f>SUM(K12:K19)</f>
-        <v>61.40625</v>
+        <v>70.190496575342465</v>
       </c>
       <c r="L20" s="23"/>
     </row>
@@ -10376,7 +10564,7 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
